--- a/data/nessus-light.xlsx
+++ b/data/nessus-light.xlsx
@@ -1861,7 +1861,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1914,7 +1914,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1928,19 +1928,16 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -2263,86 +2260,86 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="10" width="33.57642857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="29" max="29" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="30" max="30" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="31" max="31" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="32" max="32" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="33" max="33" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="34" max="34" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="35" max="35" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="36" max="36" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="37" max="37" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="38" max="38" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="39" max="39" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="40" max="40" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="41" max="41" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="42" max="42" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="43" max="43" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="44" max="44" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="45" max="45" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="46" max="46" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="47" max="47" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="48" max="48" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="49" max="49" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="50" max="50" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="51" max="51" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="52" max="52" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="53" max="53" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="54" max="54" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="55" max="55" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="56" max="56" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="57" max="57" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="58" max="58" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="59" max="59" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="60" max="60" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="61" max="61" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="62" max="62" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="63" max="63" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="64" max="64" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="65" max="65" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="66" max="66" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="67" max="67" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="68" max="68" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="69" max="69" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="70" max="70" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="71" max="71" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="72" max="72" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="73" max="73" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="74" max="74" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="75" max="75" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="76" max="76" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="77" max="77" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="9" width="33.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="9" width="14.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="9" width="9.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="9" width="10.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="28" max="28" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="29" max="29" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="30" max="30" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="31" max="31" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="32" max="32" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="33" max="33" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="34" max="34" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="35" max="35" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="36" max="36" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="37" max="37" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="38" max="38" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="39" max="39" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="40" max="40" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="41" max="41" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="42" max="42" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="43" max="43" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="44" max="44" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="45" max="45" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="46" max="46" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="47" max="47" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="48" max="48" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="49" max="49" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="50" max="50" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="51" max="51" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="52" max="52" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="53" max="53" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="54" max="54" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="55" max="55" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="56" max="56" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="57" max="57" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="58" max="58" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="59" max="59" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="60" max="60" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="61" max="61" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="62" max="62" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="63" max="63" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="64" max="64" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="65" max="65" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="66" max="66" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="67" max="67" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="68" max="68" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="69" max="69" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="70" max="70" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="71" max="71" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="72" max="72" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="73" max="73" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="74" max="74" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="75" max="75" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="76" max="76" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="77" max="77" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2575,7 +2572,7 @@
         <v>76</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="123">
       <c r="A2" s="4" t="s">
         <v>77</v>
       </c>
@@ -2758,9 +2755,9 @@
       <c r="BV2" s="6"/>
       <c r="BW2" s="4"/>
       <c r="BX2" s="4"/>
-      <c r="BY2" s="8"/>
+      <c r="BY2" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="45">
       <c r="A3" s="4" t="s">
         <v>77</v>
       </c>
@@ -2947,9 +2944,9 @@
       <c r="BV3" s="6"/>
       <c r="BW3" s="4"/>
       <c r="BX3" s="4"/>
-      <c r="BY3" s="8"/>
+      <c r="BY3" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21">
       <c r="A4" s="4" t="s">
         <v>77</v>
       </c>
@@ -3136,19 +3133,19 @@
       <c r="BV4" s="6"/>
       <c r="BW4" s="4"/>
       <c r="BX4" s="4"/>
-      <c r="BY4" s="8"/>
+      <c r="BY4" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="109.5">
       <c r="A5" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>7.5</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>7.8</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -3207,7 +3204,7 @@
       <c r="X5" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="Y5" s="9">
+      <c r="Y5" s="8">
         <v>1.2</v>
       </c>
       <c r="Z5" s="4" t="s">
@@ -3318,13 +3315,13 @@
       </c>
       <c r="BJ5" s="4"/>
       <c r="BK5" s="4"/>
-      <c r="BL5" s="9">
+      <c r="BL5" s="8">
         <v>6.5</v>
       </c>
       <c r="BM5" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="BN5" s="9">
+      <c r="BN5" s="8">
         <v>5.8</v>
       </c>
       <c r="BO5" s="4" t="s">
@@ -3339,7 +3336,7 @@
       <c r="BR5" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="BS5" s="9">
+      <c r="BS5" s="8">
         <v>5.1</v>
       </c>
       <c r="BT5" s="4" t="s">
@@ -3351,13 +3348,13 @@
       <c r="BV5" s="6"/>
       <c r="BW5" s="4"/>
       <c r="BX5" s="4"/>
-      <c r="BY5" s="8"/>
+      <c r="BY5" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="369.75">
       <c r="A6" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <v>9.8</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -3422,7 +3419,7 @@
       <c r="X6" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="Y6" s="9">
+      <c r="Y6" s="8">
         <v>1.4</v>
       </c>
       <c r="Z6" s="4" t="s">
@@ -3533,13 +3530,13 @@
       </c>
       <c r="BJ6" s="4"/>
       <c r="BK6" s="4"/>
-      <c r="BL6" s="9">
+      <c r="BL6" s="8">
         <v>9.1</v>
       </c>
       <c r="BM6" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="BN6" s="9">
+      <c r="BN6" s="8">
         <v>8.3</v>
       </c>
       <c r="BO6" s="4" t="s">
@@ -3554,7 +3551,7 @@
       <c r="BR6" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="BS6" s="9">
+      <c r="BS6" s="8">
         <v>7.4</v>
       </c>
       <c r="BT6" s="4" t="s">
@@ -3572,19 +3569,19 @@
       <c r="BX6" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="BY6" s="8"/>
+      <c r="BY6" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="265.5">
       <c r="A7" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="8">
         <v>9.8</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>7.5</v>
       </c>
       <c r="E7" s="4" t="s">
@@ -3643,7 +3640,7 @@
       <c r="X7" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="Y7" s="9">
+      <c r="Y7" s="8">
         <v>1.2</v>
       </c>
       <c r="Z7" s="4" t="s">
@@ -3754,13 +3751,13 @@
       </c>
       <c r="BJ7" s="4"/>
       <c r="BK7" s="4"/>
-      <c r="BL7" s="9">
+      <c r="BL7" s="8">
         <v>9.1</v>
       </c>
       <c r="BM7" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="BN7" s="9">
+      <c r="BN7" s="8">
         <v>6.2</v>
       </c>
       <c r="BO7" s="4" t="s">
@@ -3775,7 +3772,7 @@
       <c r="BR7" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="BS7" s="9">
+      <c r="BS7" s="8">
         <v>6.7</v>
       </c>
       <c r="BT7" s="4" t="s">
@@ -3791,19 +3788,19 @@
         <v>224</v>
       </c>
       <c r="BX7" s="4"/>
-      <c r="BY7" s="8"/>
+      <c r="BY7" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="109.5">
       <c r="A8" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <v>7.5</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>7.8</v>
       </c>
       <c r="E8" s="4" t="s">
@@ -3862,7 +3859,7 @@
       <c r="X8" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="Y8" s="9">
+      <c r="Y8" s="8">
         <v>1.5</v>
       </c>
       <c r="Z8" s="4" t="s">
@@ -3973,13 +3970,13 @@
       </c>
       <c r="BJ8" s="4"/>
       <c r="BK8" s="4"/>
-      <c r="BL8" s="9">
+      <c r="BL8" s="8">
         <v>6.5</v>
       </c>
       <c r="BM8" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="BN8" s="9">
+      <c r="BN8" s="8">
         <v>5.8</v>
       </c>
       <c r="BO8" s="4" t="s">
@@ -3994,7 +3991,7 @@
       <c r="BR8" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="BS8" s="9">
+      <c r="BS8" s="8">
         <v>5.1</v>
       </c>
       <c r="BT8" s="4" t="s">
@@ -4010,19 +4007,19 @@
       <c r="BX8" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="BY8" s="8"/>
+      <c r="BY8" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="45">
       <c r="A9" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="8">
         <v>7.5</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>7.8</v>
       </c>
       <c r="E9" s="4" t="s">
@@ -4081,7 +4078,7 @@
       <c r="X9" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="Y9" s="9">
+      <c r="Y9" s="8">
         <v>1.4</v>
       </c>
       <c r="Z9" s="4" t="s">
@@ -4192,13 +4189,13 @@
       </c>
       <c r="BJ9" s="4"/>
       <c r="BK9" s="4"/>
-      <c r="BL9" s="9">
+      <c r="BL9" s="8">
         <v>6.5</v>
       </c>
       <c r="BM9" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="BN9" s="9">
+      <c r="BN9" s="8">
         <v>5.8</v>
       </c>
       <c r="BO9" s="4" t="s">
@@ -4213,7 +4210,7 @@
       <c r="BR9" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="BS9" s="9">
+      <c r="BS9" s="8">
         <v>5.1</v>
       </c>
       <c r="BT9" s="4" t="s">
@@ -4225,19 +4222,19 @@
       <c r="BV9" s="6"/>
       <c r="BW9" s="4"/>
       <c r="BX9" s="4"/>
-      <c r="BY9" s="8"/>
+      <c r="BY9" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="135.75">
       <c r="A10" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="8">
         <v>8.1</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <v>7.6</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -4296,7 +4293,7 @@
       <c r="X10" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="Y10" s="9">
+      <c r="Y10" s="8">
         <v>1.9</v>
       </c>
       <c r="Z10" s="4" t="s">
@@ -4407,13 +4404,13 @@
       </c>
       <c r="BJ10" s="4"/>
       <c r="BK10" s="4"/>
-      <c r="BL10" s="9">
+      <c r="BL10" s="8">
         <v>7.1</v>
       </c>
       <c r="BM10" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="BN10" s="9">
+      <c r="BN10" s="8">
         <v>5.6</v>
       </c>
       <c r="BO10" s="4" t="s">
@@ -4428,7 +4425,7 @@
       <c r="BR10" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="BS10" s="9">
+      <c r="BS10" s="8">
         <v>6.7</v>
       </c>
       <c r="BT10" s="4" t="s">
@@ -4448,17 +4445,17 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="123">
       <c r="A11" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="8">
         <v>7.5</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="8">
         <v>7.8</v>
       </c>
       <c r="E11" s="4" t="s">
@@ -4517,7 +4514,7 @@
       <c r="X11" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="Y11" s="9">
+      <c r="Y11" s="8">
         <v>1.7</v>
       </c>
       <c r="Z11" s="4" t="s">
@@ -4628,13 +4625,13 @@
       </c>
       <c r="BJ11" s="4"/>
       <c r="BK11" s="4"/>
-      <c r="BL11" s="9">
+      <c r="BL11" s="8">
         <v>6.7</v>
       </c>
       <c r="BM11" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="BN11" s="9">
+      <c r="BN11" s="8">
         <v>6.1</v>
       </c>
       <c r="BO11" s="4" t="s">
@@ -4649,7 +4646,7 @@
       <c r="BR11" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="BS11" s="9">
+      <c r="BS11" s="8">
         <v>5.1</v>
       </c>
       <c r="BT11" s="4" t="s">
@@ -4669,17 +4666,17 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="84">
       <c r="A12" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="8">
         <v>7.5</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="8">
         <v>7.8</v>
       </c>
       <c r="E12" s="4" t="s">
@@ -4738,7 +4735,7 @@
       <c r="X12" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="Y12" s="9">
+      <c r="Y12" s="8">
         <v>1.5</v>
       </c>
       <c r="Z12" s="4" t="s">
@@ -4849,13 +4846,13 @@
       </c>
       <c r="BJ12" s="4"/>
       <c r="BK12" s="4"/>
-      <c r="BL12" s="9">
+      <c r="BL12" s="8">
         <v>6.5</v>
       </c>
       <c r="BM12" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="BN12" s="9">
+      <c r="BN12" s="8">
         <v>5.8</v>
       </c>
       <c r="BO12" s="4" t="s">
@@ -4870,7 +4867,7 @@
       <c r="BR12" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="BS12" s="9">
+      <c r="BS12" s="8">
         <v>5.1</v>
       </c>
       <c r="BT12" s="4" t="s">
@@ -4888,17 +4885,17 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="109.5">
       <c r="A13" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="8">
         <v>7.5</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="8">
         <v>7.8</v>
       </c>
       <c r="E13" s="4" t="s">
@@ -4957,7 +4954,7 @@
       <c r="X13" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="Y13" s="9">
+      <c r="Y13" s="8">
         <v>1.7</v>
       </c>
       <c r="Z13" s="4" t="s">
@@ -5068,13 +5065,13 @@
       </c>
       <c r="BJ13" s="4"/>
       <c r="BK13" s="4"/>
-      <c r="BL13" s="9">
+      <c r="BL13" s="8">
         <v>6.7</v>
       </c>
       <c r="BM13" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="BN13" s="9">
+      <c r="BN13" s="8">
         <v>6.1</v>
       </c>
       <c r="BO13" s="4" t="s">
@@ -5089,7 +5086,7 @@
       <c r="BR13" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="BS13" s="9">
+      <c r="BS13" s="8">
         <v>5.1</v>
       </c>
       <c r="BT13" s="4" t="s">
@@ -5109,17 +5106,17 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="109.5">
       <c r="A14" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="8">
         <v>7.5</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="8">
         <v>7.8</v>
       </c>
       <c r="E14" s="4" t="s">
@@ -5174,7 +5171,7 @@
         <v>388</v>
       </c>
       <c r="X14" s="4"/>
-      <c r="Y14" s="9">
+      <c r="Y14" s="8">
         <v>1.8</v>
       </c>
       <c r="Z14" s="4" t="s">
@@ -5281,13 +5278,13 @@
       </c>
       <c r="BJ14" s="4"/>
       <c r="BK14" s="4"/>
-      <c r="BL14" s="9">
+      <c r="BL14" s="8">
         <v>6.5</v>
       </c>
       <c r="BM14" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="BN14" s="9">
+      <c r="BN14" s="8">
         <v>5.8</v>
       </c>
       <c r="BO14" s="4" t="s">
@@ -5302,7 +5299,7 @@
       <c r="BR14" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="BS14" s="9">
+      <c r="BS14" s="8">
         <v>5.1</v>
       </c>
       <c r="BT14" s="4" t="s">
@@ -5318,19 +5315,19 @@
       <c r="BX14" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="BY14" s="8"/>
+      <c r="BY14" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="109.5">
       <c r="A15" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="8">
         <v>7.5</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="8">
         <v>7.8</v>
       </c>
       <c r="E15" s="4" t="s">
@@ -5389,7 +5386,7 @@
       <c r="X15" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="Y15" s="9">
+      <c r="Y15" s="8">
         <v>1.8</v>
       </c>
       <c r="Z15" s="4" t="s">
@@ -5500,13 +5497,13 @@
       </c>
       <c r="BJ15" s="4"/>
       <c r="BK15" s="4"/>
-      <c r="BL15" s="9">
+      <c r="BL15" s="8">
         <v>6.5</v>
       </c>
       <c r="BM15" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="BN15" s="9">
+      <c r="BN15" s="8">
         <v>5.8</v>
       </c>
       <c r="BO15" s="4" t="s">
@@ -5521,7 +5518,7 @@
       <c r="BR15" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="BS15" s="9">
+      <c r="BS15" s="8">
         <v>5.1</v>
       </c>
       <c r="BT15" s="4" t="s">
@@ -5537,19 +5534,19 @@
       <c r="BX15" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="BY15" s="8"/>
+      <c r="BY15" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="162">
       <c r="A16" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="8">
         <v>7.5</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="8">
         <v>7.8</v>
       </c>
       <c r="E16" s="4" t="s">
@@ -5608,7 +5605,7 @@
       <c r="X16" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="Y16" s="9">
+      <c r="Y16" s="8">
         <v>1.11</v>
       </c>
       <c r="Z16" s="4" t="s">
@@ -5719,13 +5716,13 @@
       </c>
       <c r="BJ16" s="4"/>
       <c r="BK16" s="4"/>
-      <c r="BL16" s="9">
+      <c r="BL16" s="8">
         <v>6.5</v>
       </c>
       <c r="BM16" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="BN16" s="9">
+      <c r="BN16" s="8">
         <v>5.8</v>
       </c>
       <c r="BO16" s="4" t="s">
@@ -5740,7 +5737,7 @@
       <c r="BR16" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="BS16" s="9">
+      <c r="BS16" s="8">
         <v>5.1</v>
       </c>
       <c r="BT16" s="4" t="s">
@@ -5756,19 +5753,19 @@
       <c r="BX16" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="BY16" s="8"/>
+      <c r="BY16" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="162">
       <c r="A17" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="8">
         <v>7.5</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="8">
         <v>7.8</v>
       </c>
       <c r="E17" s="4" t="s">
@@ -5827,7 +5824,7 @@
       <c r="X17" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="Y17" s="9">
+      <c r="Y17" s="8">
         <v>1.12</v>
       </c>
       <c r="Z17" s="4" t="s">
@@ -5938,13 +5935,13 @@
       </c>
       <c r="BJ17" s="4"/>
       <c r="BK17" s="4"/>
-      <c r="BL17" s="9">
+      <c r="BL17" s="8">
         <v>6.5</v>
       </c>
       <c r="BM17" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="BN17" s="9">
+      <c r="BN17" s="8">
         <v>5.8</v>
       </c>
       <c r="BO17" s="4" t="s">
@@ -5959,7 +5956,7 @@
       <c r="BR17" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="BS17" s="9">
+      <c r="BS17" s="8">
         <v>5.1</v>
       </c>
       <c r="BT17" s="4" t="s">
@@ -5977,19 +5974,19 @@
       <c r="BX17" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="BY17" s="8"/>
+      <c r="BY17" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="96.75">
       <c r="A18" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="8">
         <v>7.5</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="8">
         <v>7.8</v>
       </c>
       <c r="E18" s="4" t="s">
@@ -6048,7 +6045,7 @@
       <c r="X18" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="Y18" s="9">
+      <c r="Y18" s="8">
         <v>1.1</v>
       </c>
       <c r="Z18" s="4" t="s">
@@ -6159,13 +6156,13 @@
       </c>
       <c r="BJ18" s="4"/>
       <c r="BK18" s="4"/>
-      <c r="BL18" s="9">
+      <c r="BL18" s="8">
         <v>6.5</v>
       </c>
       <c r="BM18" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="BN18" s="9">
+      <c r="BN18" s="8">
         <v>5.8</v>
       </c>
       <c r="BO18" s="4" t="s">
@@ -6180,7 +6177,7 @@
       <c r="BR18" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="BS18" s="9">
+      <c r="BS18" s="8">
         <v>5.1</v>
       </c>
       <c r="BT18" s="4" t="s">
@@ -6198,19 +6195,19 @@
       <c r="BX18" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="BY18" s="8"/>
+      <c r="BY18" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="109.5">
       <c r="A19" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B19" s="9">
+      <c r="B19" s="8">
         <v>7.5</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="8">
         <v>7.8</v>
       </c>
       <c r="E19" s="4" t="s">
@@ -6269,7 +6266,7 @@
       <c r="X19" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="Y19" s="9">
+      <c r="Y19" s="8">
         <v>1.6</v>
       </c>
       <c r="Z19" s="4" t="s">
@@ -6376,13 +6373,13 @@
       </c>
       <c r="BJ19" s="4"/>
       <c r="BK19" s="4"/>
-      <c r="BL19" s="9">
+      <c r="BL19" s="8">
         <v>6.5</v>
       </c>
       <c r="BM19" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="BN19" s="9">
+      <c r="BN19" s="8">
         <v>5.8</v>
       </c>
       <c r="BO19" s="4" t="s">
@@ -6397,7 +6394,7 @@
       <c r="BR19" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="BS19" s="9">
+      <c r="BS19" s="8">
         <v>5.1</v>
       </c>
       <c r="BT19" s="4" t="s">
@@ -6413,19 +6410,19 @@
       <c r="BX19" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="BY19" s="8"/>
+      <c r="BY19" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="109.5">
       <c r="A20" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="8">
         <v>7.5</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="8">
         <v>7.8</v>
       </c>
       <c r="E20" s="4" t="s">
@@ -6484,7 +6481,7 @@
       <c r="X20" s="4" t="s">
         <v>501</v>
       </c>
-      <c r="Y20" s="9">
+      <c r="Y20" s="8">
         <v>1.8</v>
       </c>
       <c r="Z20" s="4" t="s">
@@ -6595,13 +6592,13 @@
       </c>
       <c r="BJ20" s="4"/>
       <c r="BK20" s="4"/>
-      <c r="BL20" s="9">
+      <c r="BL20" s="8">
         <v>6.5</v>
       </c>
       <c r="BM20" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="BN20" s="9">
+      <c r="BN20" s="8">
         <v>5.8</v>
       </c>
       <c r="BO20" s="4" t="s">
@@ -6616,7 +6613,7 @@
       <c r="BR20" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="BS20" s="9">
+      <c r="BS20" s="8">
         <v>5.1</v>
       </c>
       <c r="BT20" s="4" t="s">
@@ -6632,19 +6629,19 @@
       <c r="BX20" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="BY20" s="8"/>
+      <c r="BY20" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="109.5">
       <c r="A21" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="8">
         <v>7.5</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="8">
         <v>7.8</v>
       </c>
       <c r="E21" s="4" t="s">
@@ -6703,7 +6700,7 @@
       <c r="X21" s="4" t="s">
         <v>513</v>
       </c>
-      <c r="Y21" s="9">
+      <c r="Y21" s="8">
         <v>1.8</v>
       </c>
       <c r="Z21" s="4" t="s">
@@ -6814,13 +6811,13 @@
       </c>
       <c r="BJ21" s="4"/>
       <c r="BK21" s="4"/>
-      <c r="BL21" s="9">
+      <c r="BL21" s="8">
         <v>6.5</v>
       </c>
       <c r="BM21" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="BN21" s="9">
+      <c r="BN21" s="8">
         <v>5.8</v>
       </c>
       <c r="BO21" s="4" t="s">
@@ -6835,7 +6832,7 @@
       <c r="BR21" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="BS21" s="9">
+      <c r="BS21" s="8">
         <v>5.1</v>
       </c>
       <c r="BT21" s="4" t="s">
@@ -6851,19 +6848,19 @@
       <c r="BX21" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="BY21" s="8"/>
+      <c r="BY21" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="8">
         <v>7.5</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="8">
         <v>7.8</v>
       </c>
       <c r="E22" s="4" t="s">
@@ -6922,7 +6919,7 @@
       <c r="X22" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="Y22" s="9">
+      <c r="Y22" s="8">
         <v>1.8</v>
       </c>
       <c r="Z22" s="4" t="s">
@@ -7033,13 +7030,13 @@
       </c>
       <c r="BJ22" s="4"/>
       <c r="BK22" s="4"/>
-      <c r="BL22" s="9">
+      <c r="BL22" s="8">
         <v>6.5</v>
       </c>
       <c r="BM22" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="BN22" s="9">
+      <c r="BN22" s="8">
         <v>5.8</v>
       </c>
       <c r="BO22" s="4" t="s">
@@ -7054,7 +7051,7 @@
       <c r="BR22" s="4" t="s">
         <v>540</v>
       </c>
-      <c r="BS22" s="9">
+      <c r="BS22" s="8">
         <v>5.1</v>
       </c>
       <c r="BT22" s="4" t="s">
@@ -7070,19 +7067,19 @@
       <c r="BX22" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="BY22" s="8"/>
+      <c r="BY22" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="8">
         <v>7.5</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="8">
         <v>7.8</v>
       </c>
       <c r="E23" s="4" t="s">
@@ -7141,7 +7138,7 @@
       <c r="X23" s="4" t="s">
         <v>547</v>
       </c>
-      <c r="Y23" s="9">
+      <c r="Y23" s="8">
         <v>1.8</v>
       </c>
       <c r="Z23" s="4" t="s">
@@ -7252,13 +7249,13 @@
       </c>
       <c r="BJ23" s="4"/>
       <c r="BK23" s="4"/>
-      <c r="BL23" s="9">
+      <c r="BL23" s="8">
         <v>6.5</v>
       </c>
       <c r="BM23" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="BN23" s="9">
+      <c r="BN23" s="8">
         <v>5.8</v>
       </c>
       <c r="BO23" s="4" t="s">
@@ -7273,7 +7270,7 @@
       <c r="BR23" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="BS23" s="9">
+      <c r="BS23" s="8">
         <v>5.1</v>
       </c>
       <c r="BT23" s="4" t="s">
@@ -7289,19 +7286,19 @@
       <c r="BX23" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="BY23" s="8"/>
+      <c r="BY23" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="109.5">
       <c r="A24" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="8">
         <v>7.5</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="8">
         <v>7.8</v>
       </c>
       <c r="E24" s="4" t="s">
@@ -7360,7 +7357,7 @@
       <c r="X24" s="4" t="s">
         <v>560</v>
       </c>
-      <c r="Y24" s="9">
+      <c r="Y24" s="8">
         <v>1.12</v>
       </c>
       <c r="Z24" s="4" t="s">
@@ -7471,13 +7468,13 @@
       </c>
       <c r="BJ24" s="4"/>
       <c r="BK24" s="4"/>
-      <c r="BL24" s="9">
+      <c r="BL24" s="8">
         <v>6.5</v>
       </c>
       <c r="BM24" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="BN24" s="9">
+      <c r="BN24" s="8">
         <v>5.8</v>
       </c>
       <c r="BO24" s="4" t="s">
@@ -7492,7 +7489,7 @@
       <c r="BR24" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="BS24" s="9">
+      <c r="BS24" s="8">
         <v>5.1</v>
       </c>
       <c r="BT24" s="4" t="s">
@@ -7508,7 +7505,7 @@
       <c r="BX24" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="BY24" s="8"/>
+      <c r="BY24" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
